--- a/data/trans_orig/iP30B8_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/iP30B8_2023-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_menores\trans_orig\Auxiliares\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C2ED7A2A-0A9F-44C7-9C4A-D9EC9C366854}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8AFC4518-F0B6-43DB-860E-08246886BA59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{FECBCF0D-C2D2-409D-A3B5-3AB6CC024400}"/>
+    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{6BCB472B-31D5-4238-AC40-775258C4854A}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -65,12 +65,117 @@
     <t>lím sup IC</t>
   </si>
   <si>
+    <t>Menos de 2</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>89,47%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>96,8%</t>
+  </si>
+  <si>
+    <t>85,06%</t>
+  </si>
+  <si>
+    <t>98,13%</t>
+  </si>
+  <si>
+    <t>89,74%</t>
+  </si>
+  <si>
+    <t>Sí</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>14,94%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>10,26%</t>
+  </si>
+  <si>
+    <t>2/10</t>
+  </si>
+  <si>
+    <t>88,58%</t>
+  </si>
+  <si>
+    <t>72,4%</t>
+  </si>
+  <si>
+    <t>95,32%</t>
+  </si>
+  <si>
+    <t>90,99%</t>
+  </si>
+  <si>
+    <t>85,54%</t>
+  </si>
+  <si>
+    <t>94,88%</t>
+  </si>
+  <si>
+    <t>89,73%</t>
+  </si>
+  <si>
+    <t>79,93%</t>
+  </si>
+  <si>
+    <t>93,78%</t>
+  </si>
+  <si>
+    <t>11,42%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>27,6%</t>
+  </si>
+  <si>
+    <t>9,01%</t>
+  </si>
+  <si>
+    <t>5,12%</t>
+  </si>
+  <si>
+    <t>14,46%</t>
+  </si>
+  <si>
+    <t>10,27%</t>
+  </si>
+  <si>
+    <t>6,22%</t>
+  </si>
+  <si>
+    <t>20,07%</t>
+  </si>
+  <si>
     <t>10/50</t>
   </si>
   <si>
-    <t>No</t>
-  </si>
-  <si>
     <t>89,56%</t>
   </si>
   <si>
@@ -98,9 +203,6 @@
     <t>90,9%</t>
   </si>
   <si>
-    <t>Sí</t>
-  </si>
-  <si>
     <t>10,44%</t>
   </si>
   <si>
@@ -128,64 +230,61 @@
     <t>15,1%</t>
   </si>
   <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>88,58%</t>
-  </si>
-  <si>
-    <t>72,4%</t>
-  </si>
-  <si>
-    <t>95,32%</t>
-  </si>
-  <si>
-    <t>90,99%</t>
-  </si>
-  <si>
-    <t>85,54%</t>
-  </si>
-  <si>
-    <t>94,88%</t>
-  </si>
-  <si>
-    <t>89,73%</t>
-  </si>
-  <si>
-    <t>79,93%</t>
-  </si>
-  <si>
-    <t>93,78%</t>
-  </si>
-  <si>
-    <t>11,42%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>27,6%</t>
-  </si>
-  <si>
-    <t>9,01%</t>
-  </si>
-  <si>
-    <t>5,12%</t>
-  </si>
-  <si>
-    <t>14,46%</t>
-  </si>
-  <si>
-    <t>10,27%</t>
-  </si>
-  <si>
-    <t>6,22%</t>
-  </si>
-  <si>
-    <t>20,07%</t>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>87,27%</t>
+  </si>
+  <si>
+    <t>82,27%</t>
+  </si>
+  <si>
+    <t>91,26%</t>
+  </si>
+  <si>
+    <t>89,21%</t>
+  </si>
+  <si>
+    <t>84,15%</t>
+  </si>
+  <si>
+    <t>92,88%</t>
+  </si>
+  <si>
+    <t>88,22%</t>
+  </si>
+  <si>
+    <t>84,84%</t>
+  </si>
+  <si>
+    <t>91,02%</t>
+  </si>
+  <si>
+    <t>12,73%</t>
+  </si>
+  <si>
+    <t>8,74%</t>
+  </si>
+  <si>
+    <t>17,73%</t>
+  </si>
+  <si>
+    <t>10,79%</t>
+  </si>
+  <si>
+    <t>7,12%</t>
+  </si>
+  <si>
+    <t>15,85%</t>
+  </si>
+  <si>
+    <t>11,78%</t>
+  </si>
+  <si>
+    <t>8,98%</t>
+  </si>
+  <si>
+    <t>15,16%</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -243,105 +342,6 @@
   </si>
   <si>
     <t>20,79%</t>
-  </si>
-  <si>
-    <t>Menos de 2</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>89,47%</t>
-  </si>
-  <si>
-    <t>96,8%</t>
-  </si>
-  <si>
-    <t>85,06%</t>
-  </si>
-  <si>
-    <t>98,13%</t>
-  </si>
-  <si>
-    <t>89,74%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>14,94%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>10,26%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>87,27%</t>
-  </si>
-  <si>
-    <t>82,27%</t>
-  </si>
-  <si>
-    <t>91,26%</t>
-  </si>
-  <si>
-    <t>89,21%</t>
-  </si>
-  <si>
-    <t>84,15%</t>
-  </si>
-  <si>
-    <t>92,88%</t>
-  </si>
-  <si>
-    <t>88,22%</t>
-  </si>
-  <si>
-    <t>84,84%</t>
-  </si>
-  <si>
-    <t>91,02%</t>
-  </si>
-  <si>
-    <t>12,73%</t>
-  </si>
-  <si>
-    <t>8,74%</t>
-  </si>
-  <si>
-    <t>17,73%</t>
-  </si>
-  <si>
-    <t>10,79%</t>
-  </si>
-  <si>
-    <t>7,12%</t>
-  </si>
-  <si>
-    <t>15,85%</t>
-  </si>
-  <si>
-    <t>11,78%</t>
-  </si>
-  <si>
-    <t>8,98%</t>
-  </si>
-  <si>
-    <t>15,16%</t>
   </si>
   <si>
     <t>87,79%</t>
@@ -787,7 +787,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D321FAB4-7DC1-4889-B2A4-7AD066DA7FAD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{282CEBD5-9D53-40A0-9968-619749AFEC90}">
   <dimension ref="A1:Q21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -905,10 +905,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>291</v>
+        <v>17</v>
       </c>
       <c r="D4" s="7">
-        <v>217549</v>
+        <v>11397</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -920,10 +920,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>236</v>
+        <v>25</v>
       </c>
       <c r="I4" s="7">
-        <v>162785</v>
+        <v>15487</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -932,73 +932,73 @@
         <v>15</v>
       </c>
       <c r="L4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="M4" s="7">
+        <v>42</v>
+      </c>
+      <c r="N4" s="7">
+        <v>26883</v>
+      </c>
+      <c r="O4" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="M4" s="7">
-        <v>527</v>
-      </c>
-      <c r="N4" s="7">
-        <v>380334</v>
-      </c>
-      <c r="O4" s="7" t="s">
+      <c r="P4" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="P4" s="7" t="s">
-        <v>18</v>
-      </c>
       <c r="Q4" s="7" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="7">
+        <v>0</v>
+      </c>
+      <c r="D5" s="7">
+        <v>0</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="7">
-        <v>33</v>
-      </c>
-      <c r="D5" s="7">
-        <v>25364</v>
-      </c>
-      <c r="E5" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="H5" s="7">
+        <v>1</v>
+      </c>
+      <c r="I5" s="7">
+        <v>512</v>
+      </c>
+      <c r="J5" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="K5" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="H5" s="7">
-        <v>33</v>
-      </c>
-      <c r="I5" s="7">
-        <v>25132</v>
-      </c>
-      <c r="J5" s="7" t="s">
+      <c r="M5" s="7">
+        <v>1</v>
+      </c>
+      <c r="N5" s="7">
+        <v>512</v>
+      </c>
+      <c r="O5" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="P5" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>25</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="M5" s="7">
-        <v>66</v>
-      </c>
-      <c r="N5" s="7">
-        <v>50496</v>
-      </c>
-      <c r="O5" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1007,54 +1007,54 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>324</v>
+        <v>17</v>
       </c>
       <c r="D6" s="7">
-        <v>242913</v>
+        <v>11397</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="H6" s="7">
-        <v>269</v>
+        <v>26</v>
       </c>
       <c r="I6" s="7">
-        <v>187917</v>
+        <v>15999</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M6" s="7">
-        <v>593</v>
+        <v>43</v>
       </c>
       <c r="N6" s="7">
-        <v>430830</v>
+        <v>27395</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -1066,13 +1066,13 @@
         <v>99612</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="H7" s="7">
         <v>147</v>
@@ -1081,13 +1081,13 @@
         <v>92477</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="M7" s="7">
         <v>283</v>
@@ -1096,19 +1096,19 @@
         <v>192088</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C8" s="7">
         <v>11</v>
@@ -1117,13 +1117,13 @@
         <v>12836</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="H8" s="7">
         <v>15</v>
@@ -1132,13 +1132,13 @@
         <v>9158</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="M8" s="7">
         <v>26</v>
@@ -1147,13 +1147,13 @@
         <v>21995</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1168,13 +1168,13 @@
         <v>112448</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="H9" s="7">
         <v>162</v>
@@ -1183,13 +1183,13 @@
         <v>101635</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M9" s="7">
         <v>309</v>
@@ -1198,117 +1198,117 @@
         <v>214083</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>196</v>
+        <v>291</v>
       </c>
       <c r="D10" s="7">
-        <v>144864</v>
+        <v>217549</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="H10" s="7">
+        <v>236</v>
+      </c>
+      <c r="I10" s="7">
+        <v>162785</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="M10" s="7">
+        <v>527</v>
+      </c>
+      <c r="N10" s="7">
+        <v>380334</v>
+      </c>
+      <c r="O10" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="P10" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="H10" s="7">
-        <v>196</v>
-      </c>
-      <c r="I10" s="7">
-        <v>137153</v>
-      </c>
-      <c r="J10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>54</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="M10" s="7">
-        <v>392</v>
-      </c>
-      <c r="N10" s="7">
-        <v>282018</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C11" s="7">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D11" s="7">
-        <v>26592</v>
+        <v>25364</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="H11" s="7">
+        <v>33</v>
+      </c>
+      <c r="I11" s="7">
+        <v>25132</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="M11" s="7">
+        <v>66</v>
+      </c>
+      <c r="N11" s="7">
+        <v>50496</v>
+      </c>
+      <c r="O11" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="P11" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="H11" s="7">
-        <v>39</v>
-      </c>
-      <c r="I11" s="7">
-        <v>31337</v>
-      </c>
-      <c r="J11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>63</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="M11" s="7">
-        <v>75</v>
-      </c>
-      <c r="N11" s="7">
-        <v>57929</v>
-      </c>
-      <c r="O11" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1317,150 +1317,150 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>232</v>
+        <v>324</v>
       </c>
       <c r="D12" s="7">
-        <v>171456</v>
+        <v>242913</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="H12" s="7">
-        <v>235</v>
+        <v>269</v>
       </c>
       <c r="I12" s="7">
-        <v>168490</v>
+        <v>187917</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M12" s="7">
-        <v>467</v>
+        <v>593</v>
       </c>
       <c r="N12" s="7">
-        <v>339947</v>
+        <v>430830</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>17</v>
+        <v>190</v>
       </c>
       <c r="D13" s="7">
-        <v>11397</v>
+        <v>149329</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>30</v>
+        <v>67</v>
       </c>
       <c r="H13" s="7">
-        <v>25</v>
+        <v>196</v>
       </c>
       <c r="I13" s="7">
-        <v>15487</v>
+        <v>148591</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>70</v>
       </c>
       <c r="M13" s="7">
-        <v>42</v>
+        <v>386</v>
       </c>
       <c r="N13" s="7">
-        <v>26883</v>
+        <v>297920</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C14" s="7">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="D14" s="7">
-        <v>0</v>
+        <v>21790</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="H14" s="7">
+        <v>27</v>
+      </c>
+      <c r="I14" s="7">
+        <v>17977</v>
+      </c>
+      <c r="J14" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="K14" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="H14" s="7">
-        <v>1</v>
-      </c>
-      <c r="I14" s="7">
-        <v>512</v>
-      </c>
-      <c r="J14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="K14" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="L14" s="7" t="s">
+      <c r="M14" s="7">
+        <v>57</v>
+      </c>
+      <c r="N14" s="7">
+        <v>39767</v>
+      </c>
+      <c r="O14" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="M14" s="7">
-        <v>1</v>
-      </c>
-      <c r="N14" s="7">
-        <v>512</v>
-      </c>
-      <c r="O14" s="7" t="s">
+      <c r="P14" s="7" t="s">
         <v>81</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>76</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>82</v>
@@ -1472,49 +1472,49 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>17</v>
+        <v>220</v>
       </c>
       <c r="D15" s="7">
-        <v>11397</v>
+        <v>171119</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="H15" s="7">
-        <v>26</v>
+        <v>223</v>
       </c>
       <c r="I15" s="7">
-        <v>15999</v>
+        <v>166568</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M15" s="7">
-        <v>43</v>
+        <v>443</v>
       </c>
       <c r="N15" s="7">
-        <v>27395</v>
+        <v>337687</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -1525,10 +1525,10 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="D16" s="7">
-        <v>149329</v>
+        <v>144864</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>84</v>
@@ -1543,7 +1543,7 @@
         <v>196</v>
       </c>
       <c r="I16" s="7">
-        <v>148591</v>
+        <v>137153</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>87</v>
@@ -1555,10 +1555,10 @@
         <v>89</v>
       </c>
       <c r="M16" s="7">
-        <v>386</v>
+        <v>392</v>
       </c>
       <c r="N16" s="7">
-        <v>297920</v>
+        <v>282018</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>90</v>
@@ -1573,13 +1573,13 @@
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C17" s="7">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="D17" s="7">
-        <v>21790</v>
+        <v>26592</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>93</v>
@@ -1591,10 +1591,10 @@
         <v>95</v>
       </c>
       <c r="H17" s="7">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="I17" s="7">
-        <v>17977</v>
+        <v>31337</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>96</v>
@@ -1606,10 +1606,10 @@
         <v>98</v>
       </c>
       <c r="M17" s="7">
-        <v>57</v>
+        <v>75</v>
       </c>
       <c r="N17" s="7">
-        <v>39767</v>
+        <v>57929</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>99</v>
@@ -1627,49 +1627,49 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>220</v>
+        <v>232</v>
       </c>
       <c r="D18" s="7">
-        <v>171119</v>
+        <v>171456</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="H18" s="7">
-        <v>223</v>
+        <v>235</v>
       </c>
       <c r="I18" s="7">
-        <v>166568</v>
+        <v>168490</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M18" s="7">
-        <v>443</v>
+        <v>467</v>
       </c>
       <c r="N18" s="7">
-        <v>337687</v>
+        <v>339947</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -1728,7 +1728,7 @@
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C20" s="7">
         <v>110</v>
@@ -1788,13 +1788,13 @@
         <v>709334</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="H21" s="7">
         <v>915</v>
@@ -1803,13 +1803,13 @@
         <v>640609</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M21" s="7">
         <v>1855</v>
@@ -1818,13 +1818,13 @@
         <v>1349942</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/iP30B8_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/iP30B8_2023-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8AFC4518-F0B6-43DB-860E-08246886BA59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8C472D61-E964-4B33-ADE6-0154B5C54FFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{6BCB472B-31D5-4238-AC40-775258C4854A}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{10E685D4-A873-47AB-AB20-840AB6483D58}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="115">
   <si>
     <t>Menores según si toman golosinas o caramelos varias veces al día en 2023 (Tasa respuesta: 96,61%)</t>
   </si>
@@ -68,6 +68,30 @@
     <t>Menos de 2</t>
   </si>
   <si>
+    <t>Sí</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>14,94%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>10,26%</t>
+  </si>
+  <si>
     <t>No</t>
   </si>
   <si>
@@ -92,310 +116,271 @@
     <t>89,74%</t>
   </si>
   <si>
-    <t>Sí</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>14,94%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>10,26%</t>
-  </si>
-  <si>
     <t>2/10</t>
   </si>
   <si>
+    <t>11,42%</t>
+  </si>
+  <si>
+    <t>4,82%</t>
+  </si>
+  <si>
+    <t>29,15%</t>
+  </si>
+  <si>
+    <t>9,01%</t>
+  </si>
+  <si>
+    <t>5,02%</t>
+  </si>
+  <si>
+    <t>15,11%</t>
+  </si>
+  <si>
+    <t>10,27%</t>
+  </si>
+  <si>
+    <t>6,23%</t>
+  </si>
+  <si>
+    <t>21,19%</t>
+  </si>
+  <si>
     <t>88,58%</t>
   </si>
   <si>
-    <t>72,4%</t>
-  </si>
-  <si>
-    <t>95,32%</t>
+    <t>70,85%</t>
+  </si>
+  <si>
+    <t>95,18%</t>
   </si>
   <si>
     <t>90,99%</t>
   </si>
   <si>
-    <t>85,54%</t>
-  </si>
-  <si>
-    <t>94,88%</t>
+    <t>84,89%</t>
+  </si>
+  <si>
+    <t>94,98%</t>
   </si>
   <si>
     <t>89,73%</t>
   </si>
   <si>
-    <t>79,93%</t>
-  </si>
-  <si>
-    <t>93,78%</t>
-  </si>
-  <si>
-    <t>11,42%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>27,6%</t>
-  </si>
-  <si>
-    <t>9,01%</t>
-  </si>
-  <si>
-    <t>5,12%</t>
-  </si>
-  <si>
-    <t>14,46%</t>
-  </si>
-  <si>
-    <t>10,27%</t>
-  </si>
-  <si>
-    <t>6,22%</t>
-  </si>
-  <si>
-    <t>20,07%</t>
+    <t>78,81%</t>
+  </si>
+  <si>
+    <t>93,77%</t>
   </si>
   <si>
     <t>10/50</t>
   </si>
   <si>
+    <t>10,44%</t>
+  </si>
+  <si>
+    <t>7,29%</t>
+  </si>
+  <si>
+    <t>15,3%</t>
+  </si>
+  <si>
+    <t>13,37%</t>
+  </si>
+  <si>
+    <t>8,9%</t>
+  </si>
+  <si>
+    <t>18,72%</t>
+  </si>
+  <si>
+    <t>11,72%</t>
+  </si>
+  <si>
+    <t>9,24%</t>
+  </si>
+  <si>
+    <t>14,93%</t>
+  </si>
+  <si>
     <t>89,56%</t>
   </si>
   <si>
-    <t>85,17%</t>
-  </si>
-  <si>
-    <t>92,97%</t>
+    <t>84,7%</t>
+  </si>
+  <si>
+    <t>92,71%</t>
   </si>
   <si>
     <t>86,63%</t>
   </si>
   <si>
-    <t>80,25%</t>
-  </si>
-  <si>
-    <t>90,65%</t>
+    <t>81,28%</t>
+  </si>
+  <si>
+    <t>91,1%</t>
   </si>
   <si>
     <t>88,28%</t>
   </si>
   <si>
-    <t>84,9%</t>
-  </si>
-  <si>
-    <t>90,9%</t>
-  </si>
-  <si>
-    <t>10,44%</t>
-  </si>
-  <si>
-    <t>7,03%</t>
-  </si>
-  <si>
-    <t>14,83%</t>
-  </si>
-  <si>
-    <t>13,37%</t>
-  </si>
-  <si>
-    <t>9,35%</t>
-  </si>
-  <si>
-    <t>19,75%</t>
-  </si>
-  <si>
-    <t>11,72%</t>
-  </si>
-  <si>
-    <t>9,1%</t>
-  </si>
-  <si>
-    <t>15,1%</t>
+    <t>85,07%</t>
+  </si>
+  <si>
+    <t>90,76%</t>
   </si>
   <si>
     <t>mas de 50</t>
   </si>
   <si>
+    <t>12,73%</t>
+  </si>
+  <si>
+    <t>8,51%</t>
+  </si>
+  <si>
+    <t>17,35%</t>
+  </si>
+  <si>
+    <t>10,79%</t>
+  </si>
+  <si>
+    <t>7,37%</t>
+  </si>
+  <si>
+    <t>15,93%</t>
+  </si>
+  <si>
+    <t>11,78%</t>
+  </si>
+  <si>
+    <t>8,76%</t>
+  </si>
+  <si>
+    <t>15,51%</t>
+  </si>
+  <si>
     <t>87,27%</t>
   </si>
   <si>
-    <t>82,27%</t>
-  </si>
-  <si>
-    <t>91,26%</t>
+    <t>82,65%</t>
+  </si>
+  <si>
+    <t>91,49%</t>
   </si>
   <si>
     <t>89,21%</t>
   </si>
   <si>
-    <t>84,15%</t>
-  </si>
-  <si>
-    <t>92,88%</t>
+    <t>84,07%</t>
+  </si>
+  <si>
+    <t>92,63%</t>
   </si>
   <si>
     <t>88,22%</t>
   </si>
   <si>
-    <t>84,84%</t>
-  </si>
-  <si>
-    <t>91,02%</t>
-  </si>
-  <si>
-    <t>12,73%</t>
-  </si>
-  <si>
-    <t>8,74%</t>
-  </si>
-  <si>
-    <t>17,73%</t>
-  </si>
-  <si>
-    <t>10,79%</t>
-  </si>
-  <si>
-    <t>7,12%</t>
-  </si>
-  <si>
-    <t>15,85%</t>
-  </si>
-  <si>
-    <t>11,78%</t>
-  </si>
-  <si>
-    <t>8,98%</t>
-  </si>
-  <si>
-    <t>15,16%</t>
+    <t>84,49%</t>
+  </si>
+  <si>
+    <t>91,24%</t>
   </si>
   <si>
     <t>Capitales</t>
   </si>
   <si>
-    <t>84,49%</t>
-  </si>
-  <si>
-    <t>79,01%</t>
-  </si>
-  <si>
-    <t>88,44%</t>
+    <t>21,03%</t>
+  </si>
+  <si>
+    <t>18,6%</t>
+  </si>
+  <si>
+    <t>14,03%</t>
+  </si>
+  <si>
+    <t>24,5%</t>
+  </si>
+  <si>
+    <t>17,04%</t>
+  </si>
+  <si>
+    <t>13,6%</t>
+  </si>
+  <si>
+    <t>20,55%</t>
+  </si>
+  <si>
+    <t>78,97%</t>
   </si>
   <si>
     <t>81,4%</t>
   </si>
   <si>
-    <t>75,25%</t>
-  </si>
-  <si>
-    <t>86,68%</t>
+    <t>75,5%</t>
+  </si>
+  <si>
+    <t>85,97%</t>
   </si>
   <si>
     <t>82,96%</t>
   </si>
   <si>
-    <t>79,21%</t>
-  </si>
-  <si>
-    <t>86,34%</t>
-  </si>
-  <si>
-    <t>15,51%</t>
-  </si>
-  <si>
-    <t>11,56%</t>
-  </si>
-  <si>
-    <t>20,99%</t>
-  </si>
-  <si>
-    <t>18,6%</t>
-  </si>
-  <si>
-    <t>13,32%</t>
-  </si>
-  <si>
-    <t>24,75%</t>
-  </si>
-  <si>
-    <t>17,04%</t>
-  </si>
-  <si>
-    <t>13,66%</t>
-  </si>
-  <si>
-    <t>20,79%</t>
+    <t>79,45%</t>
+  </si>
+  <si>
+    <t>86,4%</t>
+  </si>
+  <si>
+    <t>12,21%</t>
+  </si>
+  <si>
+    <t>10,06%</t>
+  </si>
+  <si>
+    <t>13,13%</t>
+  </si>
+  <si>
+    <t>10,94%</t>
+  </si>
+  <si>
+    <t>15,68%</t>
+  </si>
+  <si>
+    <t>12,64%</t>
+  </si>
+  <si>
+    <t>10,98%</t>
+  </si>
+  <si>
+    <t>14,54%</t>
   </si>
   <si>
     <t>87,79%</t>
   </si>
   <si>
-    <t>84,74%</t>
-  </si>
-  <si>
-    <t>89,99%</t>
+    <t>89,94%</t>
   </si>
   <si>
     <t>86,87%</t>
   </si>
   <si>
-    <t>84,34%</t>
-  </si>
-  <si>
-    <t>89,15%</t>
+    <t>84,32%</t>
+  </si>
+  <si>
+    <t>89,06%</t>
   </si>
   <si>
     <t>87,36%</t>
   </si>
   <si>
-    <t>85,6%</t>
-  </si>
-  <si>
-    <t>89,08%</t>
-  </si>
-  <si>
-    <t>12,21%</t>
-  </si>
-  <si>
-    <t>10,01%</t>
-  </si>
-  <si>
-    <t>15,26%</t>
-  </si>
-  <si>
-    <t>13,13%</t>
-  </si>
-  <si>
-    <t>10,85%</t>
-  </si>
-  <si>
-    <t>15,66%</t>
-  </si>
-  <si>
-    <t>12,64%</t>
-  </si>
-  <si>
-    <t>10,92%</t>
-  </si>
-  <si>
-    <t>14,4%</t>
+    <t>85,46%</t>
+  </si>
+  <si>
+    <t>89,02%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
   </si>
 </sst>
 </file>
@@ -406,7 +391,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -502,39 +487,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="0E2841"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="E8E8E8"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="156082"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="E97132"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="196B24"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="0F9ED5"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="A02B93"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="4EA72E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="467886"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="96607D"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -586,7 +571,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -697,13 +682,6 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -712,6 +690,13 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -776,19 +761,39 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{282CEBD5-9D53-40A0-9968-619749AFEC90}">
-  <dimension ref="A1:Q21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC07D8BE-07F9-4AD4-BFCC-76202E98829D}">
+  <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -905,10 +910,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="D4" s="7">
-        <v>11397</v>
+        <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -920,34 +925,34 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="I4" s="7">
-        <v>15487</v>
+        <v>512</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
       </c>
       <c r="K4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="L4" s="7" t="s">
-        <v>11</v>
-      </c>
       <c r="M4" s="7">
-        <v>42</v>
+        <v>1</v>
       </c>
       <c r="N4" s="7">
-        <v>26883</v>
+        <v>512</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>16</v>
       </c>
       <c r="P4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>17</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -956,10 +961,10 @@
         <v>18</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="D5" s="7">
-        <v>0</v>
+        <v>11397</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>19</v>
@@ -971,34 +976,34 @@
         <v>21</v>
       </c>
       <c r="H5" s="7">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="I5" s="7">
-        <v>512</v>
+        <v>15487</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>22</v>
       </c>
       <c r="K5" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="L5" s="7" t="s">
-        <v>23</v>
-      </c>
       <c r="M5" s="7">
-        <v>1</v>
+        <v>42</v>
       </c>
       <c r="N5" s="7">
-        <v>512</v>
+        <v>26883</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>24</v>
       </c>
       <c r="P5" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1013,13 +1018,13 @@
         <v>11397</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="H6" s="7">
         <v>26</v>
@@ -1028,13 +1033,13 @@
         <v>15999</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="M6" s="7">
         <v>43</v>
@@ -1043,13 +1048,13 @@
         <v>27395</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -1060,10 +1065,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>136</v>
+        <v>11</v>
       </c>
       <c r="D7" s="7">
-        <v>99612</v>
+        <v>12836</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>27</v>
@@ -1075,10 +1080,10 @@
         <v>29</v>
       </c>
       <c r="H7" s="7">
-        <v>147</v>
+        <v>15</v>
       </c>
       <c r="I7" s="7">
-        <v>92477</v>
+        <v>9158</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>30</v>
@@ -1090,10 +1095,10 @@
         <v>32</v>
       </c>
       <c r="M7" s="7">
-        <v>283</v>
+        <v>26</v>
       </c>
       <c r="N7" s="7">
-        <v>192088</v>
+        <v>21995</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>33</v>
@@ -1111,10 +1116,10 @@
         <v>18</v>
       </c>
       <c r="C8" s="7">
-        <v>11</v>
+        <v>136</v>
       </c>
       <c r="D8" s="7">
-        <v>12836</v>
+        <v>99612</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>36</v>
@@ -1126,10 +1131,10 @@
         <v>38</v>
       </c>
       <c r="H8" s="7">
-        <v>15</v>
+        <v>147</v>
       </c>
       <c r="I8" s="7">
-        <v>9158</v>
+        <v>92477</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>39</v>
@@ -1141,10 +1146,10 @@
         <v>41</v>
       </c>
       <c r="M8" s="7">
-        <v>26</v>
+        <v>283</v>
       </c>
       <c r="N8" s="7">
-        <v>21995</v>
+        <v>192088</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>42</v>
@@ -1168,13 +1173,13 @@
         <v>112448</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="H9" s="7">
         <v>162</v>
@@ -1183,13 +1188,13 @@
         <v>101635</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="M9" s="7">
         <v>309</v>
@@ -1198,13 +1203,13 @@
         <v>214083</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -1215,10 +1220,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>291</v>
+        <v>33</v>
       </c>
       <c r="D10" s="7">
-        <v>217549</v>
+        <v>25364</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>46</v>
@@ -1230,10 +1235,10 @@
         <v>48</v>
       </c>
       <c r="H10" s="7">
-        <v>236</v>
+        <v>33</v>
       </c>
       <c r="I10" s="7">
-        <v>162785</v>
+        <v>25132</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>49</v>
@@ -1245,10 +1250,10 @@
         <v>51</v>
       </c>
       <c r="M10" s="7">
-        <v>527</v>
+        <v>66</v>
       </c>
       <c r="N10" s="7">
-        <v>380334</v>
+        <v>50496</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>52</v>
@@ -1266,10 +1271,10 @@
         <v>18</v>
       </c>
       <c r="C11" s="7">
-        <v>33</v>
+        <v>291</v>
       </c>
       <c r="D11" s="7">
-        <v>25364</v>
+        <v>217549</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>55</v>
@@ -1281,10 +1286,10 @@
         <v>57</v>
       </c>
       <c r="H11" s="7">
-        <v>33</v>
+        <v>236</v>
       </c>
       <c r="I11" s="7">
-        <v>25132</v>
+        <v>162785</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>58</v>
@@ -1296,10 +1301,10 @@
         <v>60</v>
       </c>
       <c r="M11" s="7">
-        <v>66</v>
+        <v>527</v>
       </c>
       <c r="N11" s="7">
-        <v>50496</v>
+        <v>380334</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>61</v>
@@ -1323,13 +1328,13 @@
         <v>242913</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="H12" s="7">
         <v>269</v>
@@ -1338,13 +1343,13 @@
         <v>187917</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="M12" s="7">
         <v>593</v>
@@ -1353,13 +1358,13 @@
         <v>430830</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1370,10 +1375,10 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>190</v>
+        <v>30</v>
       </c>
       <c r="D13" s="7">
-        <v>149329</v>
+        <v>21790</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>65</v>
@@ -1385,10 +1390,10 @@
         <v>67</v>
       </c>
       <c r="H13" s="7">
-        <v>196</v>
+        <v>27</v>
       </c>
       <c r="I13" s="7">
-        <v>148591</v>
+        <v>17977</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>68</v>
@@ -1400,10 +1405,10 @@
         <v>70</v>
       </c>
       <c r="M13" s="7">
-        <v>386</v>
+        <v>57</v>
       </c>
       <c r="N13" s="7">
-        <v>297920</v>
+        <v>39767</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>71</v>
@@ -1421,10 +1426,10 @@
         <v>18</v>
       </c>
       <c r="C14" s="7">
-        <v>30</v>
+        <v>190</v>
       </c>
       <c r="D14" s="7">
-        <v>21790</v>
+        <v>149329</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>74</v>
@@ -1436,10 +1441,10 @@
         <v>76</v>
       </c>
       <c r="H14" s="7">
-        <v>27</v>
+        <v>196</v>
       </c>
       <c r="I14" s="7">
-        <v>17977</v>
+        <v>148591</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>77</v>
@@ -1451,10 +1456,10 @@
         <v>79</v>
       </c>
       <c r="M14" s="7">
-        <v>57</v>
+        <v>386</v>
       </c>
       <c r="N14" s="7">
-        <v>39767</v>
+        <v>297920</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>80</v>
@@ -1478,13 +1483,13 @@
         <v>171119</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="H15" s="7">
         <v>223</v>
@@ -1493,13 +1498,13 @@
         <v>166568</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="M15" s="7">
         <v>443</v>
@@ -1508,13 +1513,13 @@
         <v>337687</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -1525,49 +1530,49 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>196</v>
+        <v>36</v>
       </c>
       <c r="D16" s="7">
-        <v>144864</v>
+        <v>26592</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="H16" s="7">
+        <v>39</v>
+      </c>
+      <c r="I16" s="7">
+        <v>31337</v>
+      </c>
+      <c r="J16" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="K16" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="H16" s="7">
-        <v>196</v>
-      </c>
-      <c r="I16" s="7">
-        <v>137153</v>
-      </c>
-      <c r="J16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="M16" s="7">
+        <v>75</v>
+      </c>
+      <c r="N16" s="7">
+        <v>57929</v>
+      </c>
+      <c r="O16" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="L16" s="7" t="s">
+      <c r="P16" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="M16" s="7">
-        <v>392</v>
-      </c>
-      <c r="N16" s="7">
-        <v>282018</v>
-      </c>
-      <c r="O16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>90</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1576,49 +1581,49 @@
         <v>18</v>
       </c>
       <c r="C17" s="7">
-        <v>36</v>
+        <v>196</v>
       </c>
       <c r="D17" s="7">
-        <v>26592</v>
+        <v>144864</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="H17" s="7">
+        <v>196</v>
+      </c>
+      <c r="I17" s="7">
+        <v>137153</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="M17" s="7">
+        <v>392</v>
+      </c>
+      <c r="N17" s="7">
+        <v>282018</v>
+      </c>
+      <c r="O17" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="H17" s="7">
-        <v>39</v>
-      </c>
-      <c r="I17" s="7">
-        <v>31337</v>
-      </c>
-      <c r="J17" s="7" t="s">
+      <c r="P17" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>97</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="M17" s="7">
-        <v>75</v>
-      </c>
-      <c r="N17" s="7">
-        <v>57929</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1633,13 +1638,13 @@
         <v>171456</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="H18" s="7">
         <v>235</v>
@@ -1648,13 +1653,13 @@
         <v>168490</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="M18" s="7">
         <v>467</v>
@@ -1663,13 +1668,13 @@
         <v>339947</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -1680,49 +1685,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>830</v>
+        <v>110</v>
       </c>
       <c r="D19" s="7">
-        <v>622752</v>
+        <v>86582</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="H19" s="7">
+        <v>115</v>
+      </c>
+      <c r="I19" s="7">
+        <v>84116</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="M19" s="7">
+        <v>225</v>
+      </c>
+      <c r="N19" s="7">
+        <v>170698</v>
+      </c>
+      <c r="O19" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="G19" s="7" t="s">
+      <c r="P19" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="H19" s="7">
-        <v>800</v>
-      </c>
-      <c r="I19" s="7">
-        <v>556493</v>
-      </c>
-      <c r="J19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="M19" s="7">
-        <v>1630</v>
-      </c>
-      <c r="N19" s="7">
-        <v>1179244</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1731,49 +1736,49 @@
         <v>18</v>
       </c>
       <c r="C20" s="7">
+        <v>830</v>
+      </c>
+      <c r="D20" s="7">
+        <v>622751</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="H20" s="7">
+        <v>800</v>
+      </c>
+      <c r="I20" s="7">
+        <v>556493</v>
+      </c>
+      <c r="J20" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="D20" s="7">
-        <v>86582</v>
-      </c>
-      <c r="E20" s="7" t="s">
+      <c r="M20" s="7">
+        <v>1630</v>
+      </c>
+      <c r="N20" s="7">
+        <v>1179244</v>
+      </c>
+      <c r="O20" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="P20" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="G20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="H20" s="7">
-        <v>115</v>
-      </c>
-      <c r="I20" s="7">
-        <v>84116</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="M20" s="7">
-        <v>225</v>
-      </c>
-      <c r="N20" s="7">
-        <v>170698</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1785,16 +1790,16 @@
         <v>940</v>
       </c>
       <c r="D21" s="7">
-        <v>709334</v>
+        <v>709333</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="H21" s="7">
         <v>915</v>
@@ -1803,13 +1808,13 @@
         <v>640609</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="M21" s="7">
         <v>1855</v>
@@ -1818,13 +1823,18 @@
         <v>1349942</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>114</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/iP30B8_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/iP30B8_2023-Habitat-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8C472D61-E964-4B33-ADE6-0154B5C54FFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D524156C-F1FC-4C3F-A6F8-6451848A412C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{10E685D4-A873-47AB-AB20-840AB6483D58}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{CCEDAE92-C796-4EF0-AC83-75E3B0CEEA91}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="121">
   <si>
     <t>Menores según si toman golosinas o caramelos varias veces al día en 2023 (Tasa respuesta: 96,61%)</t>
   </si>
@@ -65,7 +65,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Sí</t>
@@ -83,13 +83,13 @@
     <t>3,2%</t>
   </si>
   <si>
-    <t>14,94%</t>
+    <t>16,77%</t>
   </si>
   <si>
     <t>1,87%</t>
   </si>
   <si>
-    <t>10,26%</t>
+    <t>11,29%</t>
   </si>
   <si>
     <t>No</t>
@@ -107,91 +107,91 @@
     <t>96,8%</t>
   </si>
   <si>
-    <t>85,06%</t>
+    <t>83,23%</t>
   </si>
   <si>
     <t>98,13%</t>
   </si>
   <si>
-    <t>89,74%</t>
-  </si>
-  <si>
-    <t>2/10</t>
+    <t>88,71%</t>
+  </si>
+  <si>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>11,42%</t>
   </si>
   <si>
-    <t>4,82%</t>
-  </si>
-  <si>
-    <t>29,15%</t>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>29,45%</t>
   </si>
   <si>
     <t>9,01%</t>
   </si>
   <si>
-    <t>5,02%</t>
-  </si>
-  <si>
-    <t>15,11%</t>
+    <t>5,14%</t>
+  </si>
+  <si>
+    <t>14,48%</t>
   </si>
   <si>
     <t>10,27%</t>
   </si>
   <si>
-    <t>6,23%</t>
-  </si>
-  <si>
-    <t>21,19%</t>
+    <t>6,13%</t>
+  </si>
+  <si>
+    <t>21,09%</t>
   </si>
   <si>
     <t>88,58%</t>
   </si>
   <si>
-    <t>70,85%</t>
-  </si>
-  <si>
-    <t>95,18%</t>
+    <t>70,55%</t>
+  </si>
+  <si>
+    <t>95,34%</t>
   </si>
   <si>
     <t>90,99%</t>
   </si>
   <si>
-    <t>84,89%</t>
-  </si>
-  <si>
-    <t>94,98%</t>
+    <t>85,52%</t>
+  </si>
+  <si>
+    <t>94,86%</t>
   </si>
   <si>
     <t>89,73%</t>
   </si>
   <si>
-    <t>78,81%</t>
-  </si>
-  <si>
-    <t>93,77%</t>
-  </si>
-  <si>
-    <t>10/50</t>
+    <t>78,91%</t>
+  </si>
+  <si>
+    <t>93,87%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
   </si>
   <si>
     <t>10,44%</t>
   </si>
   <si>
-    <t>7,29%</t>
-  </si>
-  <si>
-    <t>15,3%</t>
+    <t>6,98%</t>
+  </si>
+  <si>
+    <t>14,03%</t>
   </si>
   <si>
     <t>13,37%</t>
   </si>
   <si>
-    <t>8,9%</t>
-  </si>
-  <si>
-    <t>18,72%</t>
+    <t>9,29%</t>
+  </si>
+  <si>
+    <t>18,59%</t>
   </si>
   <si>
     <t>11,72%</t>
@@ -200,184 +200,202 @@
     <t>9,24%</t>
   </si>
   <si>
-    <t>14,93%</t>
+    <t>14,76%</t>
   </si>
   <si>
     <t>89,56%</t>
   </si>
   <si>
-    <t>84,7%</t>
-  </si>
-  <si>
-    <t>92,71%</t>
+    <t>85,97%</t>
+  </si>
+  <si>
+    <t>93,02%</t>
   </si>
   <si>
     <t>86,63%</t>
   </si>
   <si>
-    <t>81,28%</t>
-  </si>
-  <si>
-    <t>91,1%</t>
+    <t>81,41%</t>
+  </si>
+  <si>
+    <t>90,71%</t>
   </si>
   <si>
     <t>88,28%</t>
   </si>
   <si>
-    <t>85,07%</t>
+    <t>85,24%</t>
   </si>
   <si>
     <t>90,76%</t>
   </si>
   <si>
-    <t>mas de 50</t>
+    <t>&gt;50.000hab</t>
   </si>
   <si>
     <t>12,73%</t>
   </si>
   <si>
-    <t>8,51%</t>
-  </si>
-  <si>
-    <t>17,35%</t>
+    <t>8,82%</t>
+  </si>
+  <si>
+    <t>17,78%</t>
   </si>
   <si>
     <t>10,79%</t>
   </si>
   <si>
-    <t>7,37%</t>
-  </si>
-  <si>
-    <t>15,93%</t>
+    <t>7,1%</t>
+  </si>
+  <si>
+    <t>15,37%</t>
   </si>
   <si>
     <t>11,78%</t>
   </si>
   <si>
-    <t>8,76%</t>
+    <t>8,85%</t>
+  </si>
+  <si>
+    <t>15,2%</t>
+  </si>
+  <si>
+    <t>87,27%</t>
+  </si>
+  <si>
+    <t>82,22%</t>
+  </si>
+  <si>
+    <t>91,18%</t>
+  </si>
+  <si>
+    <t>89,21%</t>
+  </si>
+  <si>
+    <t>84,63%</t>
+  </si>
+  <si>
+    <t>92,9%</t>
+  </si>
+  <si>
+    <t>88,22%</t>
+  </si>
+  <si>
+    <t>84,8%</t>
+  </si>
+  <si>
+    <t>91,15%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
   </si>
   <si>
     <t>15,51%</t>
   </si>
   <si>
-    <t>87,27%</t>
-  </si>
-  <si>
-    <t>82,65%</t>
-  </si>
-  <si>
-    <t>91,49%</t>
-  </si>
-  <si>
-    <t>89,21%</t>
-  </si>
-  <si>
-    <t>84,07%</t>
-  </si>
-  <si>
-    <t>92,63%</t>
-  </si>
-  <si>
-    <t>88,22%</t>
+    <t>10,93%</t>
+  </si>
+  <si>
+    <t>20,64%</t>
+  </si>
+  <si>
+    <t>18,6%</t>
+  </si>
+  <si>
+    <t>13,82%</t>
+  </si>
+  <si>
+    <t>25,21%</t>
+  </si>
+  <si>
+    <t>17,04%</t>
+  </si>
+  <si>
+    <t>13,57%</t>
+  </si>
+  <si>
+    <t>20,8%</t>
   </si>
   <si>
     <t>84,49%</t>
   </si>
   <si>
-    <t>91,24%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>21,03%</t>
-  </si>
-  <si>
-    <t>18,6%</t>
-  </si>
-  <si>
-    <t>14,03%</t>
-  </si>
-  <si>
-    <t>24,5%</t>
-  </si>
-  <si>
-    <t>17,04%</t>
-  </si>
-  <si>
-    <t>13,6%</t>
-  </si>
-  <si>
-    <t>20,55%</t>
-  </si>
-  <si>
-    <t>78,97%</t>
+    <t>79,36%</t>
+  </si>
+  <si>
+    <t>89,07%</t>
   </si>
   <si>
     <t>81,4%</t>
   </si>
   <si>
-    <t>75,5%</t>
-  </si>
-  <si>
-    <t>85,97%</t>
+    <t>74,79%</t>
+  </si>
+  <si>
+    <t>86,18%</t>
   </si>
   <si>
     <t>82,96%</t>
   </si>
   <si>
-    <t>79,45%</t>
-  </si>
-  <si>
-    <t>86,4%</t>
+    <t>79,2%</t>
+  </si>
+  <si>
+    <t>86,43%</t>
   </si>
   <si>
     <t>12,21%</t>
   </si>
   <si>
-    <t>10,06%</t>
+    <t>9,95%</t>
+  </si>
+  <si>
+    <t>15,33%</t>
   </si>
   <si>
     <t>13,13%</t>
   </si>
   <si>
-    <t>10,94%</t>
-  </si>
-  <si>
-    <t>15,68%</t>
+    <t>11,0%</t>
+  </si>
+  <si>
+    <t>15,78%</t>
   </si>
   <si>
     <t>12,64%</t>
   </si>
   <si>
-    <t>10,98%</t>
-  </si>
-  <si>
-    <t>14,54%</t>
+    <t>10,92%</t>
+  </si>
+  <si>
+    <t>14,49%</t>
   </si>
   <si>
     <t>87,79%</t>
   </si>
   <si>
-    <t>89,94%</t>
+    <t>84,67%</t>
+  </si>
+  <si>
+    <t>90,05%</t>
   </si>
   <si>
     <t>86,87%</t>
   </si>
   <si>
-    <t>84,32%</t>
-  </si>
-  <si>
-    <t>89,06%</t>
+    <t>84,22%</t>
+  </si>
+  <si>
+    <t>89,0%</t>
   </si>
   <si>
     <t>87,36%</t>
   </si>
   <si>
-    <t>85,46%</t>
-  </si>
-  <si>
-    <t>89,02%</t>
+    <t>85,51%</t>
+  </si>
+  <si>
+    <t>89,08%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
@@ -792,7 +810,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC07D8BE-07F9-4AD4-BFCC-76202E98829D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DFF6726-11C4-497B-9E2C-D28FE0ADAF83}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1536,13 +1554,13 @@
         <v>26592</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>68</v>
+        <v>85</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="H16" s="7">
         <v>39</v>
@@ -1551,13 +1569,13 @@
         <v>31337</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="M16" s="7">
         <v>75</v>
@@ -1566,13 +1584,13 @@
         <v>57929</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1587,13 +1605,13 @@
         <v>144864</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>77</v>
+        <v>95</v>
       </c>
       <c r="H17" s="7">
         <v>196</v>
@@ -1602,13 +1620,13 @@
         <v>137153</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="M17" s="7">
         <v>392</v>
@@ -1617,13 +1635,13 @@
         <v>282018</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1691,13 +1709,13 @@
         <v>86582</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>73</v>
+        <v>104</v>
       </c>
       <c r="H19" s="7">
         <v>115</v>
@@ -1706,13 +1724,13 @@
         <v>84116</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="M19" s="7">
         <v>225</v>
@@ -1721,13 +1739,13 @@
         <v>170698</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1742,13 +1760,13 @@
         <v>622751</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>81</v>
+        <v>112</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="H20" s="7">
         <v>800</v>
@@ -1757,13 +1775,13 @@
         <v>556493</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="M20" s="7">
         <v>1630</v>
@@ -1772,13 +1790,13 @@
         <v>1179244</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1834,7 +1852,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/iP30B8_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/iP30B8_2023-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D524156C-F1FC-4C3F-A6F8-6451848A412C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F886616A-0734-439E-BF69-A0274A1CFB12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{CCEDAE92-C796-4EF0-AC83-75E3B0CEEA91}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{E82F9BDF-28FB-4E0A-B46F-228DA11CA484}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,15 +36,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="105">
   <si>
     <t>Menores según si toman golosinas o caramelos varias veces al día en 2023 (Tasa respuesta: 96,61%)</t>
   </si>
   <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -65,337 +65,289 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>&lt;2.000hab</t>
+    <t>&lt;10.000 hab</t>
   </si>
   <si>
     <t>Sí</t>
   </si>
   <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>16,77%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>11,29%</t>
+    <t>8,44%</t>
+  </si>
+  <si>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>13,57%</t>
+  </si>
+  <si>
+    <t>12,88%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>35,98%</t>
+  </si>
+  <si>
+    <t>10,86%</t>
+  </si>
+  <si>
+    <t>6,06%</t>
+  </si>
+  <si>
+    <t>22,1%</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>89,47%</t>
+    <t>91,56%</t>
+  </si>
+  <si>
+    <t>86,43%</t>
+  </si>
+  <si>
+    <t>95,05%</t>
+  </si>
+  <si>
+    <t>87,12%</t>
+  </si>
+  <si>
+    <t>64,02%</t>
+  </si>
+  <si>
+    <t>95,64%</t>
+  </si>
+  <si>
+    <t>89,14%</t>
+  </si>
+  <si>
+    <t>77,9%</t>
+  </si>
+  <si>
+    <t>93,94%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>96,8%</t>
-  </si>
-  <si>
-    <t>83,23%</t>
-  </si>
-  <si>
-    <t>98,13%</t>
-  </si>
-  <si>
-    <t>88,71%</t>
-  </si>
-  <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>11,42%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>29,45%</t>
-  </si>
-  <si>
-    <t>9,01%</t>
-  </si>
-  <si>
-    <t>5,14%</t>
-  </si>
-  <si>
-    <t>14,48%</t>
-  </si>
-  <si>
-    <t>10,27%</t>
-  </si>
-  <si>
-    <t>6,13%</t>
-  </si>
-  <si>
-    <t>21,09%</t>
-  </si>
-  <si>
-    <t>88,58%</t>
-  </si>
-  <si>
-    <t>70,55%</t>
-  </si>
-  <si>
-    <t>95,34%</t>
-  </si>
-  <si>
-    <t>90,99%</t>
-  </si>
-  <si>
-    <t>85,52%</t>
-  </si>
-  <si>
-    <t>94,86%</t>
-  </si>
-  <si>
-    <t>89,73%</t>
-  </si>
-  <si>
-    <t>78,91%</t>
-  </si>
-  <si>
-    <t>93,87%</t>
-  </si>
-  <si>
     <t>10-50.000 hab</t>
   </si>
   <si>
-    <t>10,44%</t>
-  </si>
-  <si>
-    <t>6,98%</t>
-  </si>
-  <si>
-    <t>14,03%</t>
-  </si>
-  <si>
-    <t>13,37%</t>
-  </si>
-  <si>
-    <t>9,29%</t>
-  </si>
-  <si>
-    <t>18,59%</t>
-  </si>
-  <si>
-    <t>11,72%</t>
-  </si>
-  <si>
-    <t>9,24%</t>
-  </si>
-  <si>
-    <t>14,76%</t>
-  </si>
-  <si>
-    <t>89,56%</t>
-  </si>
-  <si>
-    <t>85,97%</t>
-  </si>
-  <si>
-    <t>93,02%</t>
-  </si>
-  <si>
-    <t>86,63%</t>
-  </si>
-  <si>
-    <t>81,41%</t>
-  </si>
-  <si>
-    <t>90,71%</t>
-  </si>
-  <si>
-    <t>88,28%</t>
-  </si>
-  <si>
-    <t>85,24%</t>
-  </si>
-  <si>
-    <t>90,76%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>12,73%</t>
-  </si>
-  <si>
-    <t>8,82%</t>
-  </si>
-  <si>
-    <t>17,78%</t>
-  </si>
-  <si>
-    <t>10,79%</t>
-  </si>
-  <si>
-    <t>7,1%</t>
-  </si>
-  <si>
-    <t>15,37%</t>
-  </si>
-  <si>
-    <t>11,78%</t>
-  </si>
-  <si>
-    <t>8,85%</t>
-  </si>
-  <si>
-    <t>15,2%</t>
-  </si>
-  <si>
-    <t>87,27%</t>
-  </si>
-  <si>
-    <t>82,22%</t>
-  </si>
-  <si>
-    <t>91,18%</t>
-  </si>
-  <si>
-    <t>89,21%</t>
-  </si>
-  <si>
-    <t>84,63%</t>
-  </si>
-  <si>
-    <t>92,9%</t>
-  </si>
-  <si>
-    <t>88,22%</t>
-  </si>
-  <si>
-    <t>84,8%</t>
-  </si>
-  <si>
-    <t>91,15%</t>
+    <t>14,99%</t>
+  </si>
+  <si>
+    <t>10,37%</t>
+  </si>
+  <si>
+    <t>26,28%</t>
+  </si>
+  <si>
+    <t>10,43%</t>
+  </si>
+  <si>
+    <t>7,03%</t>
+  </si>
+  <si>
+    <t>14,74%</t>
+  </si>
+  <si>
+    <t>12,39%</t>
+  </si>
+  <si>
+    <t>9,61%</t>
+  </si>
+  <si>
+    <t>16,99%</t>
+  </si>
+  <si>
+    <t>85,01%</t>
+  </si>
+  <si>
+    <t>73,72%</t>
+  </si>
+  <si>
+    <t>89,63%</t>
+  </si>
+  <si>
+    <t>89,57%</t>
+  </si>
+  <si>
+    <t>85,26%</t>
+  </si>
+  <si>
+    <t>92,97%</t>
+  </si>
+  <si>
+    <t>87,61%</t>
+  </si>
+  <si>
+    <t>83,01%</t>
+  </si>
+  <si>
+    <t>90,39%</t>
+  </si>
+  <si>
+    <t>&gt;50.000 hab</t>
+  </si>
+  <si>
+    <t>9,39%</t>
+  </si>
+  <si>
+    <t>5,35%</t>
+  </si>
+  <si>
+    <t>13,85%</t>
+  </si>
+  <si>
+    <t>12,42%</t>
+  </si>
+  <si>
+    <t>8,48%</t>
+  </si>
+  <si>
+    <t>17,43%</t>
+  </si>
+  <si>
+    <t>10,88%</t>
+  </si>
+  <si>
+    <t>7,55%</t>
+  </si>
+  <si>
+    <t>14,2%</t>
+  </si>
+  <si>
+    <t>90,61%</t>
+  </si>
+  <si>
+    <t>86,15%</t>
+  </si>
+  <si>
+    <t>94,65%</t>
+  </si>
+  <si>
+    <t>87,58%</t>
+  </si>
+  <si>
+    <t>82,57%</t>
+  </si>
+  <si>
+    <t>91,52%</t>
+  </si>
+  <si>
+    <t>89,12%</t>
+  </si>
+  <si>
+    <t>85,8%</t>
+  </si>
+  <si>
+    <t>92,45%</t>
   </si>
   <si>
     <t>Capitales</t>
   </si>
   <si>
-    <t>15,51%</t>
-  </si>
-  <si>
-    <t>10,93%</t>
-  </si>
-  <si>
-    <t>20,64%</t>
-  </si>
-  <si>
-    <t>18,6%</t>
-  </si>
-  <si>
-    <t>13,82%</t>
-  </si>
-  <si>
-    <t>25,21%</t>
-  </si>
-  <si>
-    <t>17,04%</t>
-  </si>
-  <si>
-    <t>13,57%</t>
-  </si>
-  <si>
-    <t>20,8%</t>
-  </si>
-  <si>
-    <t>84,49%</t>
-  </si>
-  <si>
-    <t>79,36%</t>
-  </si>
-  <si>
-    <t>89,07%</t>
-  </si>
-  <si>
-    <t>81,4%</t>
-  </si>
-  <si>
-    <t>74,79%</t>
-  </si>
-  <si>
-    <t>86,18%</t>
-  </si>
-  <si>
-    <t>82,96%</t>
-  </si>
-  <si>
-    <t>79,2%</t>
-  </si>
-  <si>
-    <t>86,43%</t>
-  </si>
-  <si>
-    <t>12,21%</t>
-  </si>
-  <si>
-    <t>9,95%</t>
-  </si>
-  <si>
-    <t>15,33%</t>
-  </si>
-  <si>
-    <t>13,13%</t>
-  </si>
-  <si>
-    <t>11,0%</t>
-  </si>
-  <si>
-    <t>15,78%</t>
-  </si>
-  <si>
-    <t>12,64%</t>
-  </si>
-  <si>
-    <t>10,92%</t>
-  </si>
-  <si>
-    <t>14,49%</t>
-  </si>
-  <si>
-    <t>87,79%</t>
-  </si>
-  <si>
-    <t>84,67%</t>
-  </si>
-  <si>
-    <t>90,05%</t>
-  </si>
-  <si>
-    <t>86,87%</t>
-  </si>
-  <si>
-    <t>84,22%</t>
-  </si>
-  <si>
-    <t>89,0%</t>
-  </si>
-  <si>
-    <t>87,36%</t>
-  </si>
-  <si>
-    <t>85,51%</t>
-  </si>
-  <si>
-    <t>89,08%</t>
+    <t>18,85%</t>
+  </si>
+  <si>
+    <t>13,54%</t>
+  </si>
+  <si>
+    <t>25,24%</t>
+  </si>
+  <si>
+    <t>15,56%</t>
+  </si>
+  <si>
+    <t>11,45%</t>
+  </si>
+  <si>
+    <t>21,0%</t>
+  </si>
+  <si>
+    <t>17,14%</t>
+  </si>
+  <si>
+    <t>13,75%</t>
+  </si>
+  <si>
+    <t>20,91%</t>
+  </si>
+  <si>
+    <t>81,15%</t>
+  </si>
+  <si>
+    <t>74,76%</t>
+  </si>
+  <si>
+    <t>86,46%</t>
+  </si>
+  <si>
+    <t>84,44%</t>
+  </si>
+  <si>
+    <t>79,0%</t>
+  </si>
+  <si>
+    <t>88,55%</t>
+  </si>
+  <si>
+    <t>82,86%</t>
+  </si>
+  <si>
+    <t>79,09%</t>
+  </si>
+  <si>
+    <t>86,25%</t>
+  </si>
+  <si>
+    <t>13,2%</t>
+  </si>
+  <si>
+    <t>10,73%</t>
+  </si>
+  <si>
+    <t>16,47%</t>
+  </si>
+  <si>
+    <t>12,59%</t>
+  </si>
+  <si>
+    <t>10,08%</t>
+  </si>
+  <si>
+    <t>16,83%</t>
+  </si>
+  <si>
+    <t>10,87%</t>
+  </si>
+  <si>
+    <t>15,34%</t>
+  </si>
+  <si>
+    <t>86,8%</t>
+  </si>
+  <si>
+    <t>83,53%</t>
+  </si>
+  <si>
+    <t>89,27%</t>
+  </si>
+  <si>
+    <t>87,41%</t>
+  </si>
+  <si>
+    <t>83,17%</t>
+  </si>
+  <si>
+    <t>89,92%</t>
+  </si>
+  <si>
+    <t>84,66%</t>
+  </si>
+  <si>
+    <t>89,13%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
@@ -810,8 +762,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DFF6726-11C4-497B-9E2C-D28FE0ADAF83}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09377F30-B6BC-4383-A972-C00E7C8D6650}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -928,10 +880,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="D4" s="7">
-        <v>0</v>
+        <v>9641</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -943,85 +895,85 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="I4" s="7">
-        <v>512</v>
+        <v>17625</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>1</v>
+        <v>27</v>
       </c>
       <c r="N4" s="7">
-        <v>512</v>
+        <v>27265</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>17</v>
+        <v>172</v>
       </c>
       <c r="D5" s="7">
-        <v>11397</v>
+        <v>104610</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H5" s="7">
+        <v>153</v>
+      </c>
+      <c r="I5" s="7">
+        <v>119190</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="I5" s="7">
-        <v>15487</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>23</v>
-      </c>
       <c r="L5" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>42</v>
+        <v>325</v>
       </c>
       <c r="N5" s="7">
-        <v>26883</v>
+        <v>223801</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1030,153 +982,153 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>17</v>
+        <v>188</v>
       </c>
       <c r="D6" s="7">
-        <v>11397</v>
+        <v>114251</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>26</v>
+        <v>164</v>
       </c>
       <c r="I6" s="7">
-        <v>15999</v>
+        <v>136815</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>43</v>
+        <v>352</v>
       </c>
       <c r="N6" s="7">
-        <v>27395</v>
+        <v>251066</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="D7" s="7">
-        <v>12836</v>
+        <v>27894</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H7" s="7">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="I7" s="7">
-        <v>9158</v>
+        <v>25817</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="M7" s="7">
-        <v>26</v>
+        <v>66</v>
       </c>
       <c r="N7" s="7">
-        <v>21995</v>
+        <v>53711</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>136</v>
+        <v>236</v>
       </c>
       <c r="D8" s="7">
-        <v>99612</v>
+        <v>158220</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="H8" s="7">
-        <v>147</v>
+        <v>291</v>
       </c>
       <c r="I8" s="7">
-        <v>92477</v>
+        <v>221703</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="M8" s="7">
-        <v>283</v>
+        <v>527</v>
       </c>
       <c r="N8" s="7">
-        <v>192088</v>
+        <v>379923</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1185,153 +1137,153 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>147</v>
+        <v>269</v>
       </c>
       <c r="D9" s="7">
-        <v>112448</v>
+        <v>186114</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>162</v>
+        <v>324</v>
       </c>
       <c r="I9" s="7">
-        <v>101635</v>
+        <v>247520</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>309</v>
+        <v>593</v>
       </c>
       <c r="N9" s="7">
-        <v>214083</v>
+        <v>433634</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D10" s="7">
-        <v>25364</v>
+        <v>17673</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="H10" s="7">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="I10" s="7">
-        <v>25132</v>
+        <v>22734</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="M10" s="7">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="N10" s="7">
-        <v>50496</v>
+        <v>40407</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>291</v>
+        <v>196</v>
       </c>
       <c r="D11" s="7">
-        <v>217549</v>
+        <v>170576</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="H11" s="7">
-        <v>236</v>
+        <v>190</v>
       </c>
       <c r="I11" s="7">
-        <v>162785</v>
+        <v>160355</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="M11" s="7">
-        <v>527</v>
+        <v>386</v>
       </c>
       <c r="N11" s="7">
-        <v>380334</v>
+        <v>330932</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1340,153 +1292,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>324</v>
+        <v>223</v>
       </c>
       <c r="D12" s="7">
-        <v>242913</v>
+        <v>188249</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>269</v>
+        <v>220</v>
       </c>
       <c r="I12" s="7">
-        <v>187917</v>
+        <v>183089</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>593</v>
+        <v>443</v>
       </c>
       <c r="N12" s="7">
-        <v>430830</v>
+        <v>371339</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="D13" s="7">
-        <v>21790</v>
+        <v>31010</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="H13" s="7">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="I13" s="7">
-        <v>17977</v>
+        <v>27585</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="M13" s="7">
-        <v>57</v>
+        <v>75</v>
       </c>
       <c r="N13" s="7">
-        <v>39767</v>
+        <v>58595</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="D14" s="7">
-        <v>149329</v>
+        <v>133509</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="H14" s="7">
         <v>196</v>
       </c>
       <c r="I14" s="7">
-        <v>148591</v>
+        <v>149724</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="M14" s="7">
-        <v>386</v>
+        <v>392</v>
       </c>
       <c r="N14" s="7">
-        <v>297920</v>
+        <v>283233</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1495,153 +1447,153 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>220</v>
+        <v>235</v>
       </c>
       <c r="D15" s="7">
-        <v>171119</v>
+        <v>164519</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>223</v>
+        <v>232</v>
       </c>
       <c r="I15" s="7">
-        <v>166568</v>
+        <v>177309</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>443</v>
+        <v>467</v>
       </c>
       <c r="N15" s="7">
-        <v>337687</v>
+        <v>341828</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>83</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>36</v>
+        <v>115</v>
       </c>
       <c r="D16" s="7">
-        <v>26592</v>
+        <v>86218</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="H16" s="7">
-        <v>39</v>
+        <v>110</v>
       </c>
       <c r="I16" s="7">
-        <v>31337</v>
+        <v>93761</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="M16" s="7">
-        <v>75</v>
+        <v>225</v>
       </c>
       <c r="N16" s="7">
-        <v>57929</v>
+        <v>179979</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>90</v>
+        <v>14</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>196</v>
+        <v>800</v>
       </c>
       <c r="D17" s="7">
-        <v>144864</v>
+        <v>566916</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="H17" s="7">
-        <v>196</v>
+        <v>830</v>
       </c>
       <c r="I17" s="7">
-        <v>137153</v>
+        <v>650972</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="M17" s="7">
-        <v>392</v>
+        <v>1630</v>
       </c>
       <c r="N17" s="7">
-        <v>282018</v>
+        <v>1217888</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>99</v>
+        <v>24</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1650,217 +1602,61 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>232</v>
+        <v>915</v>
       </c>
       <c r="D18" s="7">
-        <v>171456</v>
+        <v>653134</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>235</v>
+        <v>940</v>
       </c>
       <c r="I18" s="7">
-        <v>168490</v>
+        <v>744733</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>467</v>
+        <v>1855</v>
       </c>
       <c r="N18" s="7">
-        <v>339947</v>
+        <v>1397867</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>110</v>
-      </c>
-      <c r="D19" s="7">
-        <v>86582</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="G19" s="7" t="s">
+      <c r="A19" t="s">
         <v>104</v>
       </c>
-      <c r="H19" s="7">
-        <v>115</v>
-      </c>
-      <c r="I19" s="7">
-        <v>84116</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="M19" s="7">
-        <v>225</v>
-      </c>
-      <c r="N19" s="7">
-        <v>170698</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C20" s="7">
-        <v>830</v>
-      </c>
-      <c r="D20" s="7">
-        <v>622751</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="H20" s="7">
-        <v>800</v>
-      </c>
-      <c r="I20" s="7">
-        <v>556493</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="M20" s="7">
-        <v>1630</v>
-      </c>
-      <c r="N20" s="7">
-        <v>1179244</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>940</v>
-      </c>
-      <c r="D21" s="7">
-        <v>709333</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H21" s="7">
-        <v>915</v>
-      </c>
-      <c r="I21" s="7">
-        <v>640609</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="M21" s="7">
-        <v>1855</v>
-      </c>
-      <c r="N21" s="7">
-        <v>1349942</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>120</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
